--- a/요구사항.xlsx
+++ b/요구사항.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9105" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9108" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="참고자료" sheetId="2" r:id="rId1"/>
     <sheet name="요구사항" sheetId="1" r:id="rId2"/>
+    <sheet name="역할" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
   <si>
     <t>홈</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,6 +315,58 @@
   </si>
   <si>
     <t>프로필 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이구민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김주영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획서 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박종호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,67 +639,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -934,13 +987,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="2" max="2" width="27.19921875" customWidth="1"/>
     <col min="3" max="3" width="93.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>67</v>
       </c>
@@ -948,7 +1001,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>68</v>
       </c>
@@ -956,15 +1009,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>72</v>
       </c>
@@ -985,465 +1038,465 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="3" max="3" width="21.19921875" customWidth="1"/>
+    <col min="4" max="4" width="21.69921875" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="31.375" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="31.3984375" customWidth="1"/>
+    <col min="7" max="7" width="18.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="10" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="6" t="s">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="15"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="6" t="s">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="15"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="6" t="s">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="15"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7" t="s">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="15"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6" t="s">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="15"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="6" t="s">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="14" t="s">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="15"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="16" t="s">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="15"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="16" t="s">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="15"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="16" t="s">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="15"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="16" t="s">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="15"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="16" t="s">
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="15"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="15"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="14" t="s">
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="15"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="13" t="s">
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="15"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="6" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B19" s="15"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="6" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="15"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="6" t="s">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="15"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
-      <c r="C22" s="8" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B22" s="15"/>
+      <c r="C22" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="6" t="s">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B23" s="15"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="6" t="s">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B24" s="15"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="21"/>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="6" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B25" s="15"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="22"/>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B26" s="15"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="16" t="s">
+      <c r="E26" s="4"/>
+      <c r="F26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B27" s="15"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="16" t="s">
+      <c r="E27" s="4"/>
+      <c r="F27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="13"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="19" t="s">
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B28" s="15"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="6"/>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B29" s="15"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="21"/>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="13"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="6"/>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="15"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="22"/>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="13"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="15"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="19" t="s">
+      <c r="E31" s="4"/>
+      <c r="F31" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="13"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="6"/>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B32" s="15"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="21"/>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="13"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="6"/>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B33" s="15"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="22"/>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="13"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="16" t="s">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B34" s="15"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="13"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="16" t="s">
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B35" s="15"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="13"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9" t="s">
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B36" s="15"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="16" t="s">
+      <c r="E36" s="4"/>
+      <c r="F36" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="13"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="7" t="s">
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B37" s="15"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="16" t="s">
+      <c r="E37" s="4"/>
+      <c r="F37" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="13"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="23" t="s">
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B38" s="15"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="13"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="23" t="s">
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B39" s="15"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="15"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="16"/>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
@@ -1454,6 +1507,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C22:C39"/>
     <mergeCell ref="B3:B40"/>
@@ -1470,11 +1525,73 @@
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="D7:D15"/>
     <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>
--- a/요구사항.xlsx
+++ b/요구사항.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
   <si>
     <t>홈</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,70 +303,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>수강생프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 프로필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이구민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김주영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획서 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박종호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오은진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백, 프론트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://greenart.co.kr/plugin/pdf/web/viewer.php?file=2017%2F20171012171024.pdf</t>
-  </si>
-  <si>
-    <t>수강생프로젝트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 프로필</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로필 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이구민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김주영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프론트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획서 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박종호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와이어프레임(디자인 스케치 작성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드 이미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -661,15 +694,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -695,9 +731,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -984,7 +1017,7 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1019,16 +1052,17 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" t="s">
         <v>71</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1038,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1054,25 +1088,25 @@
   <sheetData>
     <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1084,9 +1118,9 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="15"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1096,9 +1130,9 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="15"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1108,9 +1142,9 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="15"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
@@ -1120,23 +1154,23 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="15"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="17" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="15"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1146,9 +1180,9 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="15"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="18"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1158,10 +1192,10 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="15"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="23" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="24" t="s">
         <v>64</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -1170,59 +1204,59 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="15"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="23"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="15"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="23"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="15"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="23"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="15"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="23"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="15"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="23"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="15"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -1234,10 +1268,10 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="15"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="23" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="24" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -1246,11 +1280,11 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="15"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="15" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="16" t="s">
         <v>50</v>
       </c>
       <c r="G18" s="8" t="s">
@@ -1258,41 +1292,41 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="15"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="15"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="15"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="15"/>
-      <c r="C22" s="14" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -1304,13 +1338,13 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="15"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="21" t="s">
         <v>57</v>
       </c>
       <c r="G23" s="9" t="s">
@@ -1318,32 +1352,32 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="15"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="15"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="15"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="5" t="s">
         <v>0</v>
       </c>
@@ -1354,9 +1388,9 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="15"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="4"/>
@@ -1366,11 +1400,11 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="15"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="21" t="s">
         <v>55</v>
       </c>
       <c r="G28" s="9" t="s">
@@ -1378,33 +1412,33 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="15"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="21"/>
+      <c r="F29" s="22"/>
       <c r="G29" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="15"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="22"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="15"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="17" t="s">
+      <c r="B31" s="16"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="18" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="21" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="4" t="s">
@@ -1412,29 +1446,29 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="15"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="21"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="15"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="18"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="22"/>
+      <c r="F33" s="23"/>
       <c r="G33" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="15"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="18"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="4"/>
       <c r="F34" s="6" t="s">
         <v>30</v>
@@ -1442,9 +1476,9 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="15"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="19"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="4"/>
       <c r="F35" s="6" t="s">
         <v>36</v>
@@ -1452,8 +1486,8 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" s="15"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="5" t="s">
         <v>2</v>
       </c>
@@ -1464,9 +1498,9 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B37" s="15"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="17" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="4"/>
@@ -1476,9 +1510,9 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B38" s="15"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="18"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="19"/>
       <c r="E38" s="4"/>
       <c r="F38" s="10" t="s">
         <v>62</v>
@@ -1486,9 +1520,9 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B39" s="15"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="19"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="4"/>
       <c r="F39" s="10" t="s">
         <v>63</v>
@@ -1496,7 +1530,7 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="16"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
@@ -1507,6 +1541,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="D3:D6"/>
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -1523,8 +1559,6 @@
     <mergeCell ref="C3:C21"/>
     <mergeCell ref="F18:F21"/>
     <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="D3:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1534,59 +1568,90 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D5"/>
+  <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="10.3984375" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
         <v>85</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>87</v>
       </c>
-      <c r="C5" t="s">
-        <v>84</v>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/요구사항.xlsx
+++ b/요구사항.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9108" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9108" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="참고자료" sheetId="2" r:id="rId1"/>
@@ -694,6 +694,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -710,15 +719,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1088,25 +1088,25 @@
   <sheetData>
     <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="13" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1118,9 +1118,9 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="16"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1130,9 +1130,9 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="16"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1142,9 +1142,9 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="16"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
@@ -1154,9 +1154,9 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="16"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="18" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1168,9 +1168,9 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="16"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1180,9 +1180,9 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="16"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1192,9 +1192,9 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="16"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="24" t="s">
         <v>64</v>
       </c>
@@ -1204,9 +1204,9 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="16"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="24"/>
       <c r="F11" s="6" t="s">
         <v>42</v>
@@ -1214,9 +1214,9 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="16"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="24"/>
       <c r="F12" s="6" t="s">
         <v>43</v>
@@ -1224,9 +1224,9 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="16"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="24"/>
       <c r="F13" s="6" t="s">
         <v>44</v>
@@ -1234,9 +1234,9 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="16"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="24"/>
       <c r="F14" s="6" t="s">
         <v>45</v>
@@ -1244,9 +1244,9 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="16"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="20"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="24"/>
       <c r="F15" s="6" t="s">
         <v>46</v>
@@ -1254,9 +1254,9 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="16"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -1268,9 +1268,9 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="16"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="24" t="s">
         <v>4</v>
       </c>
@@ -1280,11 +1280,11 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="16"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="19" t="s">
         <v>50</v>
       </c>
       <c r="G18" s="8" t="s">
@@ -1292,41 +1292,41 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="16"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="24"/>
-      <c r="F19" s="16"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="16"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="24"/>
-      <c r="F20" s="16"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="16"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="24"/>
-      <c r="F21" s="16"/>
+      <c r="F21" s="19"/>
       <c r="G21" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="16"/>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -1338,9 +1338,9 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="16"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="4" t="s">
         <v>10</v>
       </c>
@@ -1352,9 +1352,9 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="16"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="4" t="s">
         <v>11</v>
       </c>
@@ -1364,9 +1364,9 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="16"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="4" t="s">
         <v>12</v>
       </c>
@@ -1376,8 +1376,8 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="16"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="5" t="s">
         <v>0</v>
       </c>
@@ -1388,9 +1388,9 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="16"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12" t="s">
+      <c r="B27" s="19"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="4"/>
@@ -1400,9 +1400,9 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="16"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="4"/>
       <c r="F28" s="21" t="s">
         <v>55</v>
@@ -1412,9 +1412,9 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="16"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="4"/>
       <c r="F29" s="22"/>
       <c r="G29" s="9" t="s">
@@ -1422,9 +1422,9 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="16"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="4"/>
       <c r="F30" s="23"/>
       <c r="G30" s="9" t="s">
@@ -1432,9 +1432,9 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="16"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="18" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="4"/>
@@ -1446,9 +1446,9 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="16"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="4"/>
       <c r="F32" s="22"/>
       <c r="G32" s="4" t="s">
@@ -1456,9 +1456,9 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="16"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="13"/>
       <c r="E33" s="4"/>
       <c r="F33" s="23"/>
       <c r="G33" s="4" t="s">
@@ -1466,9 +1466,9 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="16"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="4"/>
       <c r="F34" s="6" t="s">
         <v>30</v>
@@ -1476,9 +1476,9 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="16"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="20"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="4"/>
       <c r="F35" s="6" t="s">
         <v>36</v>
@@ -1486,8 +1486,8 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" s="16"/>
-      <c r="C36" s="12"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="5" t="s">
         <v>2</v>
       </c>
@@ -1498,9 +1498,9 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B37" s="16"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="18" t="s">
+      <c r="B37" s="19"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="4"/>
@@ -1510,9 +1510,9 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B38" s="16"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="13"/>
       <c r="E38" s="4"/>
       <c r="F38" s="10" t="s">
         <v>62</v>
@@ -1520,9 +1520,9 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B39" s="16"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="20"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="4"/>
       <c r="F39" s="10" t="s">
         <v>63</v>
@@ -1530,7 +1530,7 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="17"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
@@ -1541,6 +1541,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="D27:D30"/>
     <mergeCell ref="D7:D15"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="D22:D25"/>
@@ -1557,8 +1559,6 @@
     <mergeCell ref="E17:E21"/>
     <mergeCell ref="D16:D21"/>
     <mergeCell ref="C3:C21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1570,7 +1570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/요구사항.xlsx
+++ b/요구사항.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
   <si>
     <t>홈</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자유게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관심목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,6 +396,45 @@
   </si>
   <si>
     <t>업로드 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api 로그인</t>
+  </si>
+  <si>
+    <t>김주영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰게시판 기본기능 다 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품상세페이지에 리뷰 나오도록 하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박종호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품업로드, 리스트 구현, 카테고리 아직 미구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ 게시판 끝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰게시판</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,7 +442,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,6 +463,21 @@
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -667,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -694,6 +744,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -703,9 +759,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -715,9 +768,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -731,6 +781,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1028,34 +1123,34 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1070,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G40"/>
+  <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1084,455 +1179,484 @@
     <col min="5" max="5" width="21.5" customWidth="1"/>
     <col min="6" max="6" width="31.3984375" customWidth="1"/>
     <col min="7" max="7" width="18.09765625" customWidth="1"/>
+    <col min="10" max="10" width="24.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="16" t="s">
+    <row r="1" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="19" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="I3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="19"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="I5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="19"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="F6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="19"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="19"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="12" t="s">
+      <c r="I6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="I7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="19"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="19"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="19"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="19"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="13"/>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="24"/>
       <c r="F11" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="19"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="13"/>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="24"/>
       <c r="F12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="19"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="13"/>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="24"/>
       <c r="F13" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="19"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="13"/>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="24"/>
       <c r="F14" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="19"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="14"/>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="24"/>
       <c r="F15" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="19"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15" t="s">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="19"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="19"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="19"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="19"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="19"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="19"/>
-      <c r="C22" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>25</v>
+      <c r="D22" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F23" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="19"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="4" t="s">
+      <c r="G23" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="19"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="19"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="19"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="5" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="31" t="s">
         <v>0</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="6" t="s">
-        <v>28</v>
+      <c r="F26" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="19"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="19"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="4"/>
       <c r="F28" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="19"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="4"/>
       <c r="F29" s="22"/>
       <c r="G29" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="19"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="4"/>
       <c r="F30" s="23"/>
       <c r="G30" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="19"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="12" t="s">
-        <v>5</v>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="32" t="s">
+        <v>104</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="21" t="s">
-        <v>31</v>
+      <c r="F31" s="35" t="s">
+        <v>30</v>
       </c>
       <c r="G31" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="19"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="4" t="s">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="19"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="4" t="s">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="38" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="19"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="19"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" s="19"/>
-      <c r="C36" s="15"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B37" s="19"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="12" t="s">
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B38" s="19"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="13"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="15"/>
       <c r="E38" s="4"/>
       <c r="F38" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B39" s="19"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="14"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="16"/>
       <c r="E39" s="4"/>
       <c r="F39" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B40" s="20"/>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="3"/>
@@ -1541,11 +1665,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D22:D25"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C22:C39"/>
@@ -1559,6 +1678,11 @@
     <mergeCell ref="E17:E21"/>
     <mergeCell ref="D16:D21"/>
     <mergeCell ref="C3:C21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D22:D25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1583,75 +1707,75 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
         <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>87</v>
       </c>
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/요구사항.xlsx
+++ b/요구사항.xlsx
@@ -744,10 +744,46 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -759,18 +795,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -780,52 +804,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1168,7 +1168,7 @@
   <dimension ref="B1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1196,19 +1196,19 @@
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="13" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="4"/>
@@ -1220,9 +1220,9 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1230,71 +1230,71 @@
         <v>38</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="J4" s="25"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="39" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="13" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="4"/>
       <c r="I5" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="39" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="4"/>
       <c r="I6" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="13" t="s">
         <v>72</v>
       </c>
       <c r="G7" s="4"/>
       <c r="I7" t="s">
         <v>102</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="15"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1304,9 +1304,9 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="15"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1316,10 +1316,10 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="24" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="35" t="s">
         <v>63</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -1328,59 +1328,59 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="24"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="24"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="24"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="35"/>
       <c r="F13" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="24"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="35"/>
       <c r="F14" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="24"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="35"/>
       <c r="F15" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -1392,23 +1392,23 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="29" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="13" t="s">
         <v>48</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="27" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38" t="s">
         <v>49</v>
       </c>
       <c r="G18" s="8" t="s">
@@ -1416,41 +1416,41 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="28"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="39"/>
       <c r="G19" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="28"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="28"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="39"/>
       <c r="G21" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="12"/>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -1462,13 +1462,13 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="29" t="s">
         <v>56</v>
       </c>
       <c r="G23" s="9" t="s">
@@ -1476,45 +1476,45 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="30"/>
       <c r="G24" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="31"/>
       <c r="G25" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="31" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="13" t="s">
         <v>27</v>
       </c>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="4"/>
@@ -1524,11 +1524,11 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="29" t="s">
         <v>54</v>
       </c>
       <c r="G28" s="9" t="s">
@@ -1536,33 +1536,33 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="22"/>
+      <c r="F29" s="30"/>
       <c r="G29" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="23"/>
+      <c r="F30" s="31"/>
       <c r="G30" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="32" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="23" t="s">
         <v>104</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="32" t="s">
         <v>30</v>
       </c>
       <c r="G31" s="4" t="s">
@@ -1570,48 +1570,48 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="33"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="36"/>
+      <c r="F32" s="33"/>
       <c r="G32" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="33"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="37"/>
+      <c r="F33" s="34"/>
       <c r="G33" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="33"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="34"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="38" t="s">
+      <c r="F35" s="15" t="s">
         <v>35</v>
       </c>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="5" t="s">
         <v>2</v>
       </c>
@@ -1622,9 +1622,9 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="4"/>
@@ -1634,9 +1634,9 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="15"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="4"/>
       <c r="F38" s="10" t="s">
         <v>61</v>
@@ -1644,9 +1644,9 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="16"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="28"/>
       <c r="E39" s="4"/>
       <c r="F39" s="10" t="s">
         <v>62</v>
@@ -1654,7 +1654,7 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="20"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="2" t="s">
         <v>7</v>
       </c>
@@ -1665,6 +1665,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D22:D25"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C22:C39"/>
@@ -1681,8 +1683,6 @@
     <mergeCell ref="F18:F21"/>
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="D7:D15"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D22:D25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
